--- a/teaching/traditional_assets/database/data/belgium/belgium_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_investments_asset_management.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.362</v>
-      </c>
-      <c r="E2">
-        <v>0.189</v>
+        <v>0.42505</v>
       </c>
       <c r="G2">
-        <v>0.6340051470375618</v>
+        <v>0.4893931524909113</v>
       </c>
       <c r="H2">
-        <v>0.6340051470375618</v>
+        <v>0.4893931524909113</v>
       </c>
       <c r="I2">
-        <v>0.8110343232223926</v>
+        <v>0.7681514921497343</v>
       </c>
       <c r="J2">
-        <v>0.7532084876715701</v>
+        <v>0.7069359527926456</v>
       </c>
       <c r="K2">
-        <v>136.889</v>
+        <v>-104.789</v>
       </c>
       <c r="L2">
-        <v>0.3958274296619727</v>
+        <v>-0.4186368902560825</v>
       </c>
       <c r="M2">
-        <v>70.97404</v>
+        <v>44.29724</v>
       </c>
       <c r="N2">
-        <v>0.03352212088436306</v>
+        <v>0.02032999986231648</v>
       </c>
       <c r="O2">
-        <v>0.5184787674685328</v>
+        <v>-0.4227279580872038</v>
       </c>
       <c r="P2">
-        <v>70.97404</v>
+        <v>44.29724</v>
       </c>
       <c r="Q2">
-        <v>0.03352212088436306</v>
+        <v>0.02032999986231648</v>
       </c>
       <c r="R2">
-        <v>0.5184787674685328</v>
+        <v>-0.4227279580872038</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>509.39</v>
+        <v>420.15</v>
       </c>
       <c r="V2">
-        <v>0.2405926611657685</v>
+        <v>0.1928257706835069</v>
       </c>
       <c r="W2">
-        <v>0.1126548209381587</v>
+        <v>0.09446718948218198</v>
       </c>
       <c r="X2">
-        <v>0.05516791497618463</v>
+        <v>0.03928648001874933</v>
       </c>
       <c r="Y2">
-        <v>0.05748690596197402</v>
+        <v>0.05518070946343265</v>
       </c>
       <c r="Z2">
-        <v>0.2370232787660506</v>
+        <v>0.1581424969342556</v>
       </c>
       <c r="AA2">
-        <v>0.1478126985749688</v>
+        <v>0.1438616301288109</v>
       </c>
       <c r="AB2">
-        <v>0.05120583354380837</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC2">
-        <v>0.08219431519614134</v>
+        <v>0.1054243970196531</v>
       </c>
       <c r="AD2">
-        <v>283.613</v>
+        <v>297.384</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>283.613</v>
+        <v>297.384</v>
       </c>
       <c r="AG2">
-        <v>-225.777</v>
+        <v>-122.766</v>
       </c>
       <c r="AH2">
-        <v>0.1181305899636086</v>
+        <v>0.1200923638307891</v>
       </c>
       <c r="AI2">
-        <v>0.1330440211978761</v>
+        <v>0.1346833186595798</v>
       </c>
       <c r="AJ2">
-        <v>-0.1193669628587123</v>
+        <v>-0.05970690768739931</v>
       </c>
       <c r="AK2">
-        <v>-0.1391680992743167</v>
+        <v>-0.06866591269854586</v>
       </c>
       <c r="AL2">
-        <v>3.167</v>
+        <v>10.699</v>
       </c>
       <c r="AM2">
-        <v>2.436</v>
+        <v>9.708</v>
       </c>
       <c r="AN2">
-        <v>1.113775864845017</v>
+        <v>1.879678907780798</v>
       </c>
       <c r="AO2">
-        <v>88.56330912535522</v>
+        <v>17.97139919618656</v>
       </c>
       <c r="AP2">
-        <v>-0.8866482616703515</v>
+        <v>-0.7759686492636366</v>
       </c>
       <c r="AQ2">
-        <v>115.1395730706075</v>
+        <v>19.80593325092707</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GIMV NV (ENXTBR:GIMB)</t>
+          <t>Beluga NV (ENXTBR:BELU)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.189</v>
+        <v>0.9420000000000001</v>
       </c>
       <c r="G3">
-        <v>0.7363048656005445</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H3">
-        <v>0.7363048656005445</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="I3">
-        <v>0.8519904729499831</v>
+        <v>0.3633633633633633</v>
       </c>
       <c r="J3">
-        <v>0.8202319373759095</v>
+        <v>0.3456493993993994</v>
       </c>
       <c r="K3">
-        <v>110.2</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>0.3749574685267098</v>
+        <v>0.3453453453453453</v>
       </c>
       <c r="M3">
-        <v>69.3</v>
+        <v>0.53176</v>
       </c>
       <c r="N3">
-        <v>0.04431796380379868</v>
+        <v>0.1100952380952381</v>
       </c>
       <c r="O3">
-        <v>0.6288566243194192</v>
+        <v>0.2312</v>
       </c>
       <c r="P3">
-        <v>69.3</v>
+        <v>0.53176</v>
       </c>
       <c r="Q3">
-        <v>0.04431796380379868</v>
+        <v>0.1100952380952381</v>
       </c>
       <c r="R3">
-        <v>0.6288566243194192</v>
+        <v>0.2312</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>459.3</v>
+        <v>4.68</v>
       </c>
       <c r="V3">
-        <v>0.2937264181108908</v>
+        <v>0.9689440993788819</v>
       </c>
       <c r="W3">
-        <v>0.0746309088446431</v>
+        <v>0.6534090909090908</v>
       </c>
       <c r="X3">
-        <v>0.05504221851250703</v>
+        <v>0.04010957578304883</v>
       </c>
       <c r="Y3">
-        <v>0.01958869033213607</v>
+        <v>0.613299515126042</v>
       </c>
       <c r="Z3">
-        <v>0.2604342046964997</v>
+        <v>2.917214191852825</v>
       </c>
       <c r="AA3">
-        <v>0.2136164522771642</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="AB3">
-        <v>0.05031067297488215</v>
+        <v>0.0390025566093618</v>
       </c>
       <c r="AC3">
-        <v>0.163305779302282</v>
+        <v>0.9693307767239713</v>
       </c>
       <c r="AD3">
-        <v>277.1</v>
+        <v>0.384</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>277.1</v>
+        <v>0.384</v>
       </c>
       <c r="AG3">
-        <v>-182.2</v>
+        <v>-4.295999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.1505323772272925</v>
+        <v>0.07364787111622555</v>
       </c>
       <c r="AI3">
-        <v>0.1595830453812486</v>
+        <v>0.06260189109879361</v>
       </c>
       <c r="AJ3">
-        <v>-0.1318856315598987</v>
+        <v>-8.044943820224708</v>
       </c>
       <c r="AK3">
-        <v>-0.1426669798762822</v>
+        <v>-2.954607977991745</v>
       </c>
       <c r="AL3">
-        <v>3.08</v>
+        <v>0.065</v>
       </c>
       <c r="AM3">
-        <v>2.569</v>
+        <v>0.017</v>
       </c>
       <c r="AN3">
-        <v>1.098295679746334</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="AO3">
-        <v>81.2987012987013</v>
+        <v>37.23076923076923</v>
       </c>
       <c r="AP3">
-        <v>-0.7221561632976614</v>
+        <v>-1.591111111111111</v>
       </c>
       <c r="AQ3">
-        <v>97.46983261969639</v>
+        <v>142.3529411764706</v>
       </c>
     </row>
     <row r="4">
@@ -859,40 +853,40 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.1700854700854701</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="H4">
-        <v>0.1700854700854701</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="I4">
-        <v>0.07820512820512822</v>
+        <v>0.08353591160220994</v>
       </c>
       <c r="J4">
-        <v>0.06164041994750657</v>
+        <v>0.06414927551339518</v>
       </c>
       <c r="K4">
-        <v>0.999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="L4">
-        <v>0.08538461538461539</v>
+        <v>0.08961325966850829</v>
       </c>
       <c r="M4">
-        <v>0.74304</v>
+        <v>0.7354800000000001</v>
       </c>
       <c r="N4">
-        <v>0.1704220183486239</v>
+        <v>0.1476867469879518</v>
       </c>
       <c r="O4">
-        <v>0.7437837837837838</v>
+        <v>0.9068803945745993</v>
       </c>
       <c r="P4">
-        <v>0.74304</v>
+        <v>0.7354800000000001</v>
       </c>
       <c r="Q4">
-        <v>0.1704220183486239</v>
+        <v>0.1476867469879518</v>
       </c>
       <c r="R4">
-        <v>0.7437837837837838</v>
+        <v>0.9068803945745993</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +895,70 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.23</v>
+        <v>3.57</v>
       </c>
       <c r="V4">
-        <v>0.5114678899082569</v>
+        <v>0.716867469879518</v>
       </c>
       <c r="W4">
-        <v>0.1506787330316742</v>
+        <v>0.13561872909699</v>
       </c>
       <c r="X4">
-        <v>0.08053586175328495</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y4">
-        <v>0.07014287127838925</v>
+        <v>0.09715534484254014</v>
       </c>
       <c r="Z4">
-        <v>2.714617169373549</v>
+        <v>2.563739376770537</v>
       </c>
       <c r="AA4">
-        <v>0.1673301423168972</v>
+        <v>0.1644620236249933</v>
       </c>
       <c r="AB4">
-        <v>0.07986171168260049</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC4">
-        <v>0.08746843063429667</v>
+        <v>0.1259986393705435</v>
       </c>
       <c r="AD4">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.46</v>
+        <v>-3.57</v>
       </c>
       <c r="AH4">
-        <v>0.5661691542288557</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.4875749785775492</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.4424552429667519</v>
+        <v>-2.53191489361702</v>
       </c>
       <c r="AK4">
-        <v>0.3665254237288135</v>
+        <v>-1.475206611570248</v>
       </c>
       <c r="AL4">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.186</v>
+        <v>-0.478</v>
       </c>
       <c r="AN4">
-        <v>3.55625</v>
-      </c>
-      <c r="AO4">
-        <v>33.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.1625</v>
+        <v>-3.216216216216216</v>
       </c>
       <c r="AQ4">
-        <v>-4.919354838709678</v>
+        <v>-1.581589958158996</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beluga NV (ENXTBR:BELU)</t>
+          <t>GIMV NV (ENXTBR:GIMB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,115 +978,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.642</v>
+        <v>-0.0919</v>
       </c>
       <c r="G5">
-        <v>0.1217391304347826</v>
+        <v>0.6107969151670951</v>
       </c>
       <c r="H5">
-        <v>0.1217391304347826</v>
+        <v>0.6107969151670951</v>
       </c>
       <c r="I5">
-        <v>0.05119214586255259</v>
+        <v>0.7881748071979435</v>
       </c>
       <c r="J5">
-        <v>0.05119214586255259</v>
+        <v>0.7881748071979435</v>
       </c>
       <c r="K5">
-        <v>2.59</v>
+        <v>-128</v>
       </c>
       <c r="L5">
-        <v>0.3632538569424965</v>
+        <v>-0.6580976863753213</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>41.5</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.02604983993471847</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>-0.32421875</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>41.5</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02604983993471847</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>-0.32421875</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>4.16</v>
+        <v>355.7</v>
       </c>
       <c r="V5">
-        <v>0.9519450800915332</v>
+        <v>0.2232753750549244</v>
       </c>
       <c r="W5">
-        <v>0.7848484848484848</v>
+        <v>-0.08976786590925029</v>
       </c>
       <c r="X5">
-        <v>0.05529361143986224</v>
+        <v>0.04232358313571015</v>
       </c>
       <c r="Y5">
-        <v>0.7295548734086226</v>
+        <v>-0.1320914490449605</v>
       </c>
       <c r="Z5">
-        <v>2.506151142355009</v>
+        <v>0.1563881965104125</v>
       </c>
       <c r="AA5">
-        <v>0.1282952548330404</v>
+        <v>0.1232612366326284</v>
       </c>
       <c r="AB5">
-        <v>0.0513750550750544</v>
+        <v>0.03841108196386579</v>
       </c>
       <c r="AC5">
-        <v>0.07692019975798603</v>
+        <v>0.08485015466876265</v>
       </c>
       <c r="AD5">
-        <v>0.823</v>
+        <v>297</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.823</v>
+        <v>297</v>
       </c>
       <c r="AG5">
-        <v>-3.337</v>
+        <v>-58.69999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.1584825726940112</v>
+        <v>0.1571345431458653</v>
       </c>
       <c r="AI5">
-        <v>0.1237035923643469</v>
+        <v>0.1752936315882666</v>
       </c>
       <c r="AJ5">
-        <v>-3.230396902226525</v>
+        <v>-0.03825599582898852</v>
       </c>
       <c r="AK5">
-        <v>-1.338547934215804</v>
+        <v>-0.04385178544748244</v>
       </c>
       <c r="AL5">
-        <v>0.055</v>
+        <v>10.5</v>
       </c>
       <c r="AM5">
-        <v>0.055</v>
+        <v>10.095</v>
       </c>
       <c r="AN5">
-        <v>1.110661268556005</v>
+        <v>1.923575129533679</v>
       </c>
       <c r="AO5">
-        <v>6.636363636363636</v>
+        <v>14.6</v>
       </c>
       <c r="AP5">
-        <v>-4.503373819163293</v>
+        <v>-0.380181347150259</v>
       </c>
       <c r="AQ5">
-        <v>6.636363636363636</v>
+        <v>15.18573551263001</v>
       </c>
     </row>
     <row r="6">
@@ -1121,34 +1115,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8700906344410876</v>
+        <v>0.8927680798004987</v>
       </c>
       <c r="J6">
-        <v>0.8386727173899303</v>
+        <v>0.8588941521793602</v>
       </c>
       <c r="K6">
-        <v>23.1</v>
+        <v>20.1</v>
       </c>
       <c r="L6">
-        <v>0.6978851963746223</v>
+        <v>0.5012468827930174</v>
       </c>
       <c r="M6">
-        <v>0.931</v>
+        <v>1.53</v>
       </c>
       <c r="N6">
-        <v>0.001708883994126285</v>
+        <v>0.00265625</v>
       </c>
       <c r="O6">
-        <v>0.04030303030303031</v>
+        <v>0.07611940298507462</v>
       </c>
       <c r="P6">
-        <v>0.931</v>
+        <v>1.53</v>
       </c>
       <c r="Q6">
-        <v>0.001708883994126285</v>
+        <v>0.00265625</v>
       </c>
       <c r="R6">
-        <v>0.04030303030303031</v>
+        <v>0.07611940298507462</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,31 +1151,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>43.7</v>
+        <v>56.2</v>
       </c>
       <c r="V6">
-        <v>0.08021292217327461</v>
+        <v>0.09756944444444444</v>
       </c>
       <c r="W6">
-        <v>0.06090166095438967</v>
+        <v>0.05331564986737401</v>
       </c>
       <c r="X6">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y6">
-        <v>0.009865048941827333</v>
+        <v>0.01485226561292418</v>
       </c>
       <c r="Z6">
-        <v>0.1023500309214595</v>
+        <v>0.1203120312031203</v>
       </c>
       <c r="AA6">
-        <v>0.08583817855784383</v>
+        <v>0.1033353000371807</v>
       </c>
       <c r="AB6">
-        <v>0.05103661201256234</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC6">
-        <v>0.03480156654528149</v>
+        <v>0.06487191578273092</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1193,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-43.7</v>
+        <v>-56.2</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1202,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.08720814208740771</v>
+        <v>-0.1081185071181224</v>
       </c>
       <c r="AK6">
-        <v>-0.1311131113111311</v>
+        <v>-0.1261787157611136</v>
       </c>
       <c r="AL6">
-        <v>0.005</v>
+        <v>0.134</v>
       </c>
       <c r="AM6">
-        <v>-0.002</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="AO6">
-        <v>5760</v>
+        <v>267.1641791044776</v>
       </c>
       <c r="AQ6">
-        <v>-14400</v>
+        <v>483.7837837837837</v>
       </c>
     </row>
   </sheetData>
